--- a/Rovia.UI.Automation.Tests/DataSheet/Car/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Car/CarScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881"/>
   </bookViews>
   <sheets>
     <sheet name="Car_Airport_To_Airport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="83">
   <si>
     <t>Description</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Car_WithLoginMember_DOMESTIC_Location_SamePickup_DropAirport</t>
   </si>
   <si>
-    <t>Car_WithLoginMember_DOMESTIC_Location_DifferentPickup_DropAirport</t>
-  </si>
-  <si>
     <t>Registered</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Car_WithGuestUser_DOMESTIC_Location_SamePickup_DropAirport</t>
   </si>
   <si>
-    <t>Car_WithGuestUser_DOMESTIC_Location_DifferentPickup_DropAirport</t>
-  </si>
-  <si>
     <t>Car_WithGuestUser_DOMESTIC_Location_SamePickupAndDrop_InACity</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>Car_WithLoginMember_SameDay_DOMESTIC_SamePickup_DropAirport</t>
   </si>
   <si>
-    <t>Car_WithLoginMember_SameDay_DOMESTIC_Location_DifferentPickup_DropAirport</t>
-  </si>
-  <si>
     <t>Car_WithLoginMember_SameDay_DOMESTIC_Location_SamePickupAndDrop_InACity</t>
   </si>
   <si>
@@ -180,9 +171,6 @@
     <t>Car_WithLoginMember_DOMESTIC_Location_SamePickup_DropAirport_WithRentalAgency</t>
   </si>
   <si>
-    <t>Car_WithLoginMember_DOMESTIC_Location_DifferentPickup_DropAirport_WithCarType</t>
-  </si>
-  <si>
     <t>Car_WithLoginMember_DOMESTIC_Location_SamePickupAndDrop_InACity_WithAirConditioning</t>
   </si>
   <si>
@@ -195,9 +183,6 @@
     <t>Car_WithLoginMember_DOMESTIC_Location_SamePickup_DropAirport_WithCorporateDiscount</t>
   </si>
   <si>
-    <t>Car_WithLoginMember_DOMESTIC_Location_DifferentPickup_DropAirport_WithCorporateDiscount</t>
-  </si>
-  <si>
     <t>Car_WithLoginMember_DOMESTIC_Location_SamePickupAndDrop_InACity_WithCorporateDiscount</t>
   </si>
   <si>
@@ -222,18 +207,6 @@
     <t>matrix</t>
   </si>
   <si>
-    <t>Car_WithGuestUser_DOMESTIC_Location_DifferentPickup_DropAirport_WithSpecificTime</t>
-  </si>
-  <si>
-    <t>Car_WithGuestUser_SameDay_DOMESTIC_Location_DifferentPickup_DropAirport</t>
-  </si>
-  <si>
-    <t>Car_WithGuestUser_DOMESTIC_Location_DifferentPickup_DropAirport_WithCarType</t>
-  </si>
-  <si>
-    <t>Car_WithGuestUser_DOMESTIC_Location_DifferentPickup_DropAirport_WithCorporateDiscount</t>
-  </si>
-  <si>
     <t>Car_WithGuestUser_DOMESTIC_Location_SamePickup_DropAirport_WithSpecificTime</t>
   </si>
   <si>
@@ -295,12 +268,6 @@
   </si>
   <si>
     <t>Search|setfilters|AddToCart</t>
-  </si>
-  <si>
-    <t>Economy</t>
-  </si>
-  <si>
-    <t>Compact</t>
   </si>
 </sst>
 </file>
@@ -4298,12 +4265,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="I5" sqref="I5"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4378,7 +4345,7 @@
     </row>
     <row r="2" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>27</v>
@@ -4392,7 +4359,7 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -4406,299 +4373,6 @@
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
-    </row>
-    <row r="3" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-    </row>
-    <row r="4" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-    </row>
-    <row r="5" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-    </row>
-    <row r="6" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="L6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-    </row>
-    <row r="7" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-    </row>
-    <row r="8" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-    </row>
-    <row r="10" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-    </row>
-    <row r="11" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="L11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4788,17 +4462,17 @@
     </row>
     <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="25" t="s">
@@ -4812,28 +4486,28 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
       <c r="O2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="37" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="25" t="s">
@@ -4847,28 +4521,28 @@
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="25" t="s">
@@ -4882,7 +4556,7 @@
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" s="36" t="s">
         <v>30</v>
@@ -4893,17 +4567,17 @@
     </row>
     <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="25" t="s">
@@ -4917,25 +4591,25 @@
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
       <c r="O5" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="25" t="s">
@@ -4949,13 +4623,13 @@
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5073,14 +4747,14 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>27</v>
@@ -5094,7 +4768,7 @@
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
@@ -5104,14 +4778,14 @@
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
     </row>
     <row r="4" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
@@ -5125,7 +4799,7 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -5135,14 +4809,14 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
@@ -5168,14 +4842,14 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>27</v>
@@ -5205,14 +4879,14 @@
         <v>16</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>27</v>
@@ -5243,7 +4917,7 @@
     </row>
     <row r="8" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>27</v>
@@ -5257,7 +4931,7 @@
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -5274,7 +4948,7 @@
     </row>
     <row r="9" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
@@ -5288,7 +4962,7 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -5305,7 +4979,7 @@
     </row>
     <row r="10" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
@@ -5338,7 +5012,7 @@
     </row>
     <row r="11" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -5463,10 +5137,10 @@
     </row>
     <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>26</v>
@@ -5487,21 +5161,21 @@
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
       <c r="O2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>26</v>
@@ -5522,21 +5196,21 @@
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>26</v>
@@ -5557,21 +5231,21 @@
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>26</v>
@@ -5592,7 +5266,7 @@
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
       <c r="O5" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" s="36" t="s">
         <v>30</v>
@@ -5603,10 +5277,10 @@
     </row>
     <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>26</v>
@@ -5627,10 +5301,10 @@
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="36"/>
     </row>
@@ -5724,7 +5398,7 @@
     </row>
     <row r="2" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>27</v>
@@ -5750,14 +5424,14 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
@@ -5773,7 +5447,7 @@
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -5783,14 +5457,14 @@
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
@@ -5806,7 +5480,7 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -5816,14 +5490,14 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
     </row>
     <row r="5" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
@@ -5845,20 +5519,20 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>27</v>
@@ -5890,14 +5564,14 @@
         <v>16</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>27</v>
@@ -5930,7 +5604,7 @@
     </row>
     <row r="8" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
@@ -5946,7 +5620,7 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -5963,7 +5637,7 @@
     </row>
     <row r="9" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
@@ -5979,7 +5653,7 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -5996,7 +5670,7 @@
     </row>
     <row r="10" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
@@ -6018,7 +5692,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -6031,7 +5705,7 @@
     </row>
     <row r="11" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -6080,7 +5754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -6158,7 +5832,7 @@
     </row>
     <row r="2" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>27</v>
@@ -6184,14 +5858,14 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
@@ -6207,7 +5881,7 @@
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -6217,14 +5891,14 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
@@ -6240,7 +5914,7 @@
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -6250,14 +5924,14 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
     </row>
     <row r="5" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
@@ -6285,14 +5959,14 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>27</v>
@@ -6324,14 +5998,14 @@
         <v>16</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>27</v>
@@ -6364,7 +6038,7 @@
     </row>
     <row r="8" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
@@ -6380,7 +6054,7 @@
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -6397,7 +6071,7 @@
     </row>
     <row r="9" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
@@ -6413,7 +6087,7 @@
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -6430,7 +6104,7 @@
     </row>
     <row r="10" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
@@ -6465,7 +6139,7 @@
     </row>
     <row r="11" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>

--- a/Rovia.UI.Automation.Tests/DataSheet/Car/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Car/CarScenarios.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881"/>
@@ -558,6 +558,29 @@
   </cellStyles>
   <dxfs count="127">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3608,29 +3631,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3831,148 +3831,148 @@
     <tableColumn id="2" name="PickUpType-Location" dataDxfId="119"/>
     <tableColumn id="19" name="OriginLocation" dataDxfId="118"/>
     <tableColumn id="3" name="DropOffType-Location" dataDxfId="117"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="116"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="115"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="114"/>
-    <tableColumn id="18" name="CarType" dataDxfId="113"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="112"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="111"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="110"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="109"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="108"/>
-    <tableColumn id="12" name="UserType" dataDxfId="107"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="106"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="105"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="0"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="116"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="115"/>
+    <tableColumn id="18" name="CarType" dataDxfId="114"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="113"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="112"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="111"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="110"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="109"/>
+    <tableColumn id="12" name="UserType" dataDxfId="108"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="107"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101" totalsRowBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="99"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="98"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="97"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="96"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="95"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="94"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="93"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="92"/>
-    <tableColumn id="18" name="CarType" dataDxfId="91"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="90"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="89"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="88"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="87"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="86"/>
-    <tableColumn id="12" name="UserType" dataDxfId="85"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="84"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="83"/>
+    <tableColumn id="1" name="Description" dataDxfId="100"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="99"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="98"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="97"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="96"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="95"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="94"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="93"/>
+    <tableColumn id="18" name="CarType" dataDxfId="92"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="91"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="90"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="89"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="88"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="87"/>
+    <tableColumn id="12" name="UserType" dataDxfId="86"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="85"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="78"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="77"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="76"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="75"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="74"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="73"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="72"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="71"/>
-    <tableColumn id="9" name="CarType" dataDxfId="70"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="69"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="68"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="67"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="66"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="65"/>
-    <tableColumn id="15" name="UserType" dataDxfId="64"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="63"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="62"/>
+    <tableColumn id="1" name="Description" dataDxfId="79"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="78"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="77"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="76"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="75"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="74"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="73"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="72"/>
+    <tableColumn id="9" name="CarType" dataDxfId="71"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="70"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="69"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="68"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="67"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="66"/>
+    <tableColumn id="15" name="UserType" dataDxfId="65"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="64"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="58"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="57"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="56"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="55"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="54"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="53"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="52"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="51"/>
-    <tableColumn id="9" name="CarType" dataDxfId="50"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="49"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="48"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="47"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="46"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="45"/>
-    <tableColumn id="15" name="UserType" dataDxfId="44"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="43"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="42"/>
+    <tableColumn id="1" name="Description" dataDxfId="59"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="58"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="57"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="56"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="55"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="54"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="53"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="52"/>
+    <tableColumn id="9" name="CarType" dataDxfId="51"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="50"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="49"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="48"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="47"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="46"/>
+    <tableColumn id="15" name="UserType" dataDxfId="45"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="44"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="37"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="36"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="35"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="34"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="33"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="32"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="31"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="30"/>
-    <tableColumn id="9" name="CarType" dataDxfId="29"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="28"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="27"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="26"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="25"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="24"/>
-    <tableColumn id="15" name="UserType" dataDxfId="23"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="22"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="21"/>
+    <tableColumn id="1" name="Description" dataDxfId="38"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="37"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="36"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="35"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="34"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="33"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="32"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="31"/>
+    <tableColumn id="9" name="CarType" dataDxfId="30"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="29"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="28"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="27"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="26"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="25"/>
+    <tableColumn id="15" name="UserType" dataDxfId="24"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="23"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="16"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="14"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="13"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="12"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="11"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="10"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="9"/>
-    <tableColumn id="9" name="CarType" dataDxfId="8"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="7"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="6"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="5"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="4"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="3"/>
-    <tableColumn id="15" name="UserType" dataDxfId="2"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
+    <tableColumn id="1" name="Description" dataDxfId="17"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="16"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="15"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="14"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="13"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="12"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="11"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="10"/>
+    <tableColumn id="9" name="CarType" dataDxfId="9"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="8"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="7"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="6"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="5"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="4"/>
+    <tableColumn id="15" name="UserType" dataDxfId="3"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="2"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4270,17 +4270,18 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="A17" sqref="A17"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -4306,7 +4307,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -4357,7 +4358,7 @@
       <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>40</v>
       </c>

--- a/Rovia.UI.Automation.Tests/DataSheet/Car/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Car/CarScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Car_Airport_To_Airport" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -488,7 +488,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -558,29 +557,6 @@
   </cellStyles>
   <dxfs count="127">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3631,6 +3607,29 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3831,148 +3830,148 @@
     <tableColumn id="2" name="PickUpType-Location" dataDxfId="119"/>
     <tableColumn id="19" name="OriginLocation" dataDxfId="118"/>
     <tableColumn id="3" name="DropOffType-Location" dataDxfId="117"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="0"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="116"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="115"/>
-    <tableColumn id="18" name="CarType" dataDxfId="114"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="113"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="112"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="111"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="110"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="109"/>
-    <tableColumn id="12" name="UserType" dataDxfId="108"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="107"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="106"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="116"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="115"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="114"/>
+    <tableColumn id="18" name="CarType" dataDxfId="113"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="112"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="111"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="110"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="109"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="108"/>
+    <tableColumn id="12" name="UserType" dataDxfId="107"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="106"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table23" displayName="Table23" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101" totalsRowBorderDxfId="100">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="100"/>
-    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="99"/>
-    <tableColumn id="2" name="PickUpType-Location" dataDxfId="98"/>
-    <tableColumn id="19" name="OriginLocation" dataDxfId="97"/>
-    <tableColumn id="3" name="DropOffType-Location" dataDxfId="96"/>
-    <tableColumn id="20" name="DestinationLocation" dataDxfId="95"/>
-    <tableColumn id="4" name="TravelDates" dataDxfId="94"/>
-    <tableColumn id="5" name="RentalAgency" dataDxfId="93"/>
-    <tableColumn id="18" name="CarType" dataDxfId="92"/>
-    <tableColumn id="6" name="AirConditioning" dataDxfId="91"/>
-    <tableColumn id="7" name="Transmission" dataDxfId="90"/>
-    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="89"/>
-    <tableColumn id="9" name="CorpDiscCode" dataDxfId="88"/>
-    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="87"/>
-    <tableColumn id="12" name="UserType" dataDxfId="86"/>
-    <tableColumn id="11" name="PostFilters" dataDxfId="85"/>
-    <tableColumn id="13" name="PostFiltersValues" dataDxfId="84"/>
+    <tableColumn id="1" name="Description" dataDxfId="99"/>
+    <tableColumn id="16" name="ExecutionPipeline" dataDxfId="98"/>
+    <tableColumn id="2" name="PickUpType-Location" dataDxfId="97"/>
+    <tableColumn id="19" name="OriginLocation" dataDxfId="96"/>
+    <tableColumn id="3" name="DropOffType-Location" dataDxfId="95"/>
+    <tableColumn id="20" name="DestinationLocation" dataDxfId="94"/>
+    <tableColumn id="4" name="TravelDates" dataDxfId="93"/>
+    <tableColumn id="5" name="RentalAgency" dataDxfId="92"/>
+    <tableColumn id="18" name="CarType" dataDxfId="91"/>
+    <tableColumn id="6" name="AirConditioning" dataDxfId="90"/>
+    <tableColumn id="7" name="Transmission" dataDxfId="89"/>
+    <tableColumn id="8" name="CorpDiscRentalAgency" dataDxfId="88"/>
+    <tableColumn id="9" name="CorpDiscCode" dataDxfId="87"/>
+    <tableColumn id="10" name="CorpDiscPromotionalCode" dataDxfId="86"/>
+    <tableColumn id="12" name="UserType" dataDxfId="85"/>
+    <tableColumn id="11" name="PostFilters" dataDxfId="84"/>
+    <tableColumn id="13" name="PostFiltersValues" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="79"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="78"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="77"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="76"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="75"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="74"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="73"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="72"/>
-    <tableColumn id="9" name="CarType" dataDxfId="71"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="70"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="69"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="68"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="67"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="66"/>
-    <tableColumn id="15" name="UserType" dataDxfId="65"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="64"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="63"/>
+    <tableColumn id="1" name="Description" dataDxfId="78"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="77"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="76"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="75"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="74"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="73"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="72"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="71"/>
+    <tableColumn id="9" name="CarType" dataDxfId="70"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="69"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="68"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="67"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="66"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="65"/>
+    <tableColumn id="15" name="UserType" dataDxfId="64"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="63"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="59"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="58"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="57"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="56"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="55"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="54"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="53"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="52"/>
-    <tableColumn id="9" name="CarType" dataDxfId="51"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="50"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="49"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="48"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="47"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="46"/>
-    <tableColumn id="15" name="UserType" dataDxfId="45"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="44"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="43"/>
+    <tableColumn id="1" name="Description" dataDxfId="58"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="57"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="56"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="55"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="54"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="53"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="52"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="51"/>
+    <tableColumn id="9" name="CarType" dataDxfId="50"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="49"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="48"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="47"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="46"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="45"/>
+    <tableColumn id="15" name="UserType" dataDxfId="44"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="43"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="38"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="37"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="36"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="35"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="34"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="33"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="32"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="31"/>
-    <tableColumn id="9" name="CarType" dataDxfId="30"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="29"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="28"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="27"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="26"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="25"/>
-    <tableColumn id="15" name="UserType" dataDxfId="24"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="23"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="22"/>
+    <tableColumn id="1" name="Description" dataDxfId="37"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="36"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="35"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="34"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="33"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="32"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="31"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="30"/>
+    <tableColumn id="9" name="CarType" dataDxfId="29"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="28"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="27"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="26"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="25"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="24"/>
+    <tableColumn id="15" name="UserType" dataDxfId="23"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="22"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="17"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="16"/>
-    <tableColumn id="3" name="PickUpType-Location" dataDxfId="15"/>
-    <tableColumn id="4" name="OriginLocation" dataDxfId="14"/>
-    <tableColumn id="5" name="DropOffType-Location" dataDxfId="13"/>
-    <tableColumn id="6" name="DestinationLocation" dataDxfId="12"/>
-    <tableColumn id="7" name="TravelDates" dataDxfId="11"/>
-    <tableColumn id="8" name="RentalAgency" dataDxfId="10"/>
-    <tableColumn id="9" name="CarType" dataDxfId="9"/>
-    <tableColumn id="10" name="AirConditioning" dataDxfId="8"/>
-    <tableColumn id="11" name="Transmission" dataDxfId="7"/>
-    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="6"/>
-    <tableColumn id="13" name="CorpDiscCode" dataDxfId="5"/>
-    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="4"/>
-    <tableColumn id="15" name="UserType" dataDxfId="3"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="2"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="1"/>
+    <tableColumn id="1" name="Description" dataDxfId="16"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
+    <tableColumn id="3" name="PickUpType-Location" dataDxfId="14"/>
+    <tableColumn id="4" name="OriginLocation" dataDxfId="13"/>
+    <tableColumn id="5" name="DropOffType-Location" dataDxfId="12"/>
+    <tableColumn id="6" name="DestinationLocation" dataDxfId="11"/>
+    <tableColumn id="7" name="TravelDates" dataDxfId="10"/>
+    <tableColumn id="8" name="RentalAgency" dataDxfId="9"/>
+    <tableColumn id="9" name="CarType" dataDxfId="8"/>
+    <tableColumn id="10" name="AirConditioning" dataDxfId="7"/>
+    <tableColumn id="11" name="Transmission" dataDxfId="6"/>
+    <tableColumn id="12" name="CorpDiscRentalAgency" dataDxfId="5"/>
+    <tableColumn id="13" name="CorpDiscCode" dataDxfId="4"/>
+    <tableColumn id="14" name="CorpDiscPromotionalCode" dataDxfId="3"/>
+    <tableColumn id="15" name="UserType" dataDxfId="2"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4267,15 +4266,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="91.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
@@ -4292,7 +4291,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4345,7 +4344,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -4372,8 +4371,8 @@
       <c r="O2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4388,28 +4387,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.42578125" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4424,7 +4428,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -4454,182 +4458,182 @@
       <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
       <c r="O3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
       <c r="O4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
       <c r="O5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="32" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="36" t="s">
+      <c r="Q6" s="35" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4652,7 +4656,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -4670,60 +4674,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4736,7 +4740,7 @@
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
@@ -4750,42 +4754,42 @@
       <c r="O2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4798,7 +4802,7 @@
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="4" t="s">
         <v>80</v>
       </c>
@@ -4812,11 +4816,11 @@
       <c r="O4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -4829,7 +4833,7 @@
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="11" t="s">
         <v>6</v>
       </c>
@@ -4845,11 +4849,11 @@
       <c r="O5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -4862,7 +4866,7 @@
       <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="11" t="s">
         <v>6</v>
       </c>
@@ -4882,11 +4886,11 @@
       <c r="O6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4899,7 +4903,7 @@
       <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
@@ -4913,42 +4917,42 @@
       <c r="O7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
       <c r="O8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4961,7 +4965,7 @@
       <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="4" t="s">
         <v>80</v>
       </c>
@@ -4975,11 +4979,11 @@
       <c r="O9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
     </row>
     <row r="10" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4992,7 +4996,7 @@
       <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="11" t="s">
         <v>6</v>
       </c>
@@ -5008,11 +5012,11 @@
       <c r="O10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -5025,7 +5029,7 @@
       <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="11" t="s">
         <v>6</v>
       </c>
@@ -5045,8 +5049,8 @@
       <c r="O11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5084,60 +5088,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -5146,33 +5150,33 @@
       <c r="C2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -5181,33 +5185,33 @@
       <c r="C3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
       <c r="O3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -5216,33 +5220,33 @@
       <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
       <c r="O4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -5251,33 +5255,33 @@
       <c r="C5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
       <c r="O5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -5286,28 +5290,28 @@
       <c r="C6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="36"/>
+      <c r="Q6" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5327,7 +5331,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.85546875" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -5345,60 +5349,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -5413,7 +5417,7 @@
       <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
@@ -5427,11 +5431,11 @@
       <c r="O2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -5446,7 +5450,7 @@
       <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="4" t="s">
         <v>40</v>
       </c>
@@ -5460,11 +5464,11 @@
       <c r="O3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
     </row>
     <row r="4" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -5479,7 +5483,7 @@
       <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="4" t="s">
         <v>80</v>
       </c>
@@ -5493,11 +5497,11 @@
       <c r="O4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5512,7 +5516,7 @@
       <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
@@ -5528,11 +5532,11 @@
       <c r="O5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -5547,7 +5551,7 @@
       <c r="E6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="10" t="s">
         <v>6</v>
       </c>
@@ -5567,11 +5571,11 @@
       <c r="O6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -5586,7 +5590,7 @@
       <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="8" t="s">
         <v>6</v>
       </c>
@@ -5600,11 +5604,11 @@
       <c r="O7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -5619,7 +5623,7 @@
       <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="4" t="s">
         <v>40</v>
       </c>
@@ -5633,11 +5637,11 @@
       <c r="O8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -5652,7 +5656,7 @@
       <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="4" t="s">
         <v>80</v>
       </c>
@@ -5666,11 +5670,11 @@
       <c r="O9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
     </row>
     <row r="10" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -5685,7 +5689,7 @@
       <c r="E10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="10" t="s">
         <v>6</v>
       </c>
@@ -5701,11 +5705,11 @@
       <c r="O10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
     </row>
     <row r="11" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -5720,7 +5724,7 @@
       <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="10" t="s">
         <v>6</v>
       </c>
@@ -5740,8 +5744,8 @@
       <c r="O11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5761,7 +5765,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="86.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.140625" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -5779,60 +5783,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -5847,7 +5851,7 @@
       <c r="E2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
@@ -5861,11 +5865,11 @@
       <c r="O2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -5880,7 +5884,7 @@
       <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="4" t="s">
         <v>40</v>
       </c>
@@ -5894,11 +5898,11 @@
       <c r="O3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
     </row>
     <row r="4" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -5913,7 +5917,7 @@
       <c r="E4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="4" t="s">
         <v>80</v>
       </c>
@@ -5927,11 +5931,11 @@
       <c r="O4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -5946,7 +5950,7 @@
       <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
@@ -5962,11 +5966,11 @@
       <c r="O5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -5981,7 +5985,7 @@
       <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="10" t="s">
         <v>6</v>
       </c>
@@ -6001,11 +6005,11 @@
       <c r="O6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -6020,7 +6024,7 @@
       <c r="E7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="10" t="s">
         <v>6</v>
       </c>
@@ -6034,11 +6038,11 @@
       <c r="O7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -6053,7 +6057,7 @@
       <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="4" t="s">
         <v>40</v>
       </c>
@@ -6067,11 +6071,11 @@
       <c r="O8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
     </row>
     <row r="9" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -6086,7 +6090,7 @@
       <c r="E9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="4" t="s">
         <v>80</v>
       </c>
@@ -6100,11 +6104,11 @@
       <c r="O9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
     </row>
     <row r="10" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -6119,7 +6123,7 @@
       <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="10" t="s">
         <v>6</v>
       </c>
@@ -6135,11 +6139,11 @@
       <c r="O10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
     </row>
     <row r="11" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -6154,7 +6158,7 @@
       <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="10" t="s">
         <v>6</v>
       </c>
@@ -6174,8 +6178,8 @@
       <c r="O11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Car/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Car/CarScenarios.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="84">
   <si>
     <t>Description</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Search|setfilters|AddToCart</t>
+  </si>
+  <si>
+    <t>20-30</t>
   </si>
 </sst>
 </file>
@@ -4387,8 +4390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4497,7 +4500,7 @@
         <v>57</v>
       </c>
       <c r="Q2" s="36" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">

--- a/Rovia.UI.Automation.Tests/DataSheet/Car/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Car/CarScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881"/>
   </bookViews>
   <sheets>
     <sheet name="Car_Airport_To_Airport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>20-30</t>
+  </si>
+  <si>
+    <t>Search|AddToCart|checkoutTrip|Login|enterpaxinfo|confirmpaxinfo|PayNow</t>
   </si>
 </sst>
 </file>
@@ -4269,10 +4272,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4351,7 +4354,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -4390,8 +4393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Car/CarScenarios.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Car/CarScenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="881" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Car_Airport_To_Airport" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="93">
   <si>
     <t>Description</t>
   </si>
@@ -274,6 +274,30 @@
   </si>
   <si>
     <t>Search|AddToCart|checkoutTrip|Login|enterpaxinfo|confirmpaxinfo|PayNow</t>
+  </si>
+  <si>
+    <t>10|11</t>
+  </si>
+  <si>
+    <t>10,3:00 AM|11,3:00 AM</t>
+  </si>
+  <si>
+    <t>20|21</t>
+  </si>
+  <si>
+    <t>18|20</t>
+  </si>
+  <si>
+    <t>10|12</t>
+  </si>
+  <si>
+    <t>12,3:00 AM|14,3:00 AM</t>
+  </si>
+  <si>
+    <t>8|9</t>
+  </si>
+  <si>
+    <t>12|14</t>
   </si>
 </sst>
 </file>
@@ -4272,7 +4296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
@@ -4656,8 +4680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4748,7 +4772,7 @@
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="4" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -4779,7 +4803,7 @@
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="4" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -4810,7 +4834,7 @@
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -4841,7 +4865,7 @@
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="11" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>11</v>
@@ -4874,7 +4898,7 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="11" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -4910,8 +4934,8 @@
         <v>32</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="4" t="s">
-        <v>6</v>
+      <c r="G7" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -4942,7 +4966,7 @@
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="4" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -4973,7 +4997,7 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -5004,7 +5028,7 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="11" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>11</v>
@@ -5037,7 +5061,7 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="11" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
